--- a/Base/Teams/Eagles/Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="C3">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Eagles/Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="C2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Eagles/Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>37</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Eagles/Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C3">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="C3">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Eagles/Target Depth Data.xlsx
+++ b/Base/Teams/Eagles/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="C3">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>6</v>
